--- a/Excel-2013/Excel Unit C/EX C-QST Advertising Expenses.xlsx
+++ b/Excel-2013/Excel Unit C/EX C-QST Advertising Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github_MS_Office_2013\microsoftOffice2013\Excel-2013\Excel Unit C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DB8C3D-7C92-45D3-A5DF-4690B80D0DC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D77A8-576A-420C-820E-CC82FFEE8B5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <webPublishing codePage="1252"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
   <si>
     <t>Type</t>
   </si>
@@ -116,10 +115,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -157,6 +156,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,7 +191,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -192,8 +202,10 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -540,7 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -555,8 +569,8 @@
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="5"/>
@@ -592,32 +606,33 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="5"/>
